--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,18 +495,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ad域用户14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查条件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名称4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>证书名称2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,24 +551,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xt,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">xt
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xt</t>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +688,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +732,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1078,18 +1056,17 @@
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="12" width="16.375" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="13.875" customWidth="1"/>
     <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="30.75" customWidth="1"/>
-    <col min="17" max="17" width="37.25" customWidth="1"/>
+    <col min="16" max="16" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1112,37 +1089,34 @@
         <v>39</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1153,18 +1127,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="J2" s="2">
         <v>15210005447</v>
@@ -1182,14 +1156,11 @@
         <v>2</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1197,19 +1168,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
+      <c r="H3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1217,12 +1188,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1">
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1239,9 +1207,8 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1258,9 +1225,8 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1277,9 +1243,8 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="7" spans="1:16" ht="18" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1296,9 +1261,8 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1315,9 +1279,8 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1334,9 +1297,8 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1353,9 +1315,8 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1372,9 +1333,8 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1391,15 +1351,18 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="I3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1426,22 +1389,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H1" s="3">
         <v>3</v>
@@ -1449,18 +1412,18 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1490,31 +1453,31 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1544,25 +1507,25 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1593,33 +1556,33 @@
         <v>33</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +1594,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1653,11 +1616,10 @@
     <col min="12" max="12" width="16.25" customWidth="1"/>
     <col min="13" max="13" width="20.125" customWidth="1"/>
     <col min="14" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="23.875" customWidth="1"/>
-    <col min="18" max="18" width="20.75" customWidth="1"/>
+    <col min="17" max="17" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1707,13 +1669,10 @@
         <v>58</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1683,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -1735,11 +1694,11 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2</v>
+      <c r="J2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="L2" s="2">
         <v>15210005448</v>
@@ -1756,10 +1715,7 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1767,19 +1723,21 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1790,13 +1748,14 @@
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.875" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>36</v>
@@ -1819,34 +1778,25 @@
         <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1860,23 +1810,20 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="H2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1892,23 +1839,20 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
+      <c r="H3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1924,25 +1868,22 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
+      <c r="H4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1956,28 +1897,25 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
+      <c r="H5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>17</v>
@@ -1986,25 +1924,22 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+      <c r="H6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -2023,16 +1958,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -2046,23 +1978,20 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="1">
-        <v>1</v>
+      <c r="H8" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -2076,25 +2005,22 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
+      <c r="H9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -2108,30 +2034,27 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
+      <c r="H10" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J10" s="1">
         <v>123</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>17</v>
@@ -2142,30 +2065,27 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
+      <c r="H11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -2176,30 +2096,27 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
+      <c r="H12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
         <v>123</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
@@ -2210,23 +2127,20 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
+      <c r="H13" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="M13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
@@ -2240,11 +2154,8 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2258,11 +2169,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2276,12 +2184,20 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H6" r:id="rId2" display="qawsed@123"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="I3:I6" r:id="rId4" display="qawsed@123"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9:H13" r:id="rId6" display="qawsed@123"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="I11:I13" r:id="rId8" display="qawsed@123"/>
+    <hyperlink ref="I9" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2289,10 +2205,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2303,39 +2219,35 @@
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2346,12 +2258,11 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2364,12 +2275,11 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2382,14 +2292,13 @@
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -2400,17 +2309,16 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2418,30 +2326,28 @@
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -2449,15 +2355,15 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2466,12 +2372,11 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="G9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2479,7 +2384,6 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2528,14 +2432,14 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2567,7 +2471,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2578,13 +2482,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2595,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2606,46 +2510,40 @@
     <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="6" width="30.25" customWidth="1"/>
+    <col min="4" max="5" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>130</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="14"/>
     </row>
   </sheetData>
@@ -2677,22 +2575,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2700,34 +2598,34 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2761,22 +2659,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2784,20 +2682,20 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2809,13 +2707,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/testData/user_test_data.xlsx
+++ b/testData/user_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_user" sheetId="2" r:id="rId1"/>
@@ -13,20 +13,19 @@
     <sheet name="search_user" sheetId="5" r:id="rId4"/>
     <sheet name="del_user" sheetId="6" r:id="rId5"/>
     <sheet name="del_all_user" sheetId="7" r:id="rId6"/>
-    <sheet name="search_by_role" sheetId="8" r:id="rId7"/>
-    <sheet name="search_by_dep" sheetId="9" r:id="rId8"/>
-    <sheet name="search_by_status" sheetId="10" r:id="rId9"/>
-    <sheet name="search_by_name" sheetId="11" r:id="rId10"/>
-    <sheet name="create_cert" sheetId="13" r:id="rId11"/>
-    <sheet name="reCreate_cert" sheetId="15" r:id="rId12"/>
-    <sheet name="delete_cert" sheetId="14" r:id="rId13"/>
+    <sheet name="search_by_dep" sheetId="9" r:id="rId7"/>
+    <sheet name="search_by_status" sheetId="10" r:id="rId8"/>
+    <sheet name="search_by_name" sheetId="11" r:id="rId9"/>
+    <sheet name="create_cert" sheetId="13" r:id="rId10"/>
+    <sheet name="reCreate_cert" sheetId="15" r:id="rId11"/>
+    <sheet name="delete_cert" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="131">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检索角色为系统管理员的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检索用户名称或者账号为a的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,10 +543,6 @@
   </si>
   <si>
     <t>账号2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -669,15 +660,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,7 +670,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,9 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1043,8 +1022,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1104,13 +1083,13 @@
         <v>65</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>0</v>
@@ -1127,18 +1106,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J2" s="2">
         <v>15210005447</v>
@@ -1168,19 +1147,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1367,72 +1346,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="31.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1453,31 +1366,31 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1507,25 +1420,25 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1556,33 +1469,33 @@
         <v>33</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1695,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L2" s="2">
         <v>15210005448</v>
@@ -1737,7 +1650,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1810,17 +1723,17 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>131</v>
+      <c r="H2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -1839,17 +1752,17 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>131</v>
+      <c r="H3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -1868,22 +1781,22 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>131</v>
+      <c r="H4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1897,22 +1810,22 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>131</v>
+      <c r="H5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>68</v>
@@ -1924,22 +1837,22 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>131</v>
+      <c r="H6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -1959,12 +1872,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -1978,20 +1891,20 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="15" t="s">
-        <v>131</v>
+      <c r="H8" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -2005,22 +1918,22 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>132</v>
+      <c r="H9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -2034,11 +1947,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>131</v>
+      <c r="H10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J10" s="1">
         <v>123</v>
@@ -2046,12 +1959,12 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>67</v>
@@ -2065,11 +1978,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>131</v>
+      <c r="H11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
@@ -2077,12 +1990,12 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>69</v>
@@ -2096,11 +2009,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>131</v>
+      <c r="H12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2108,12 +2021,12 @@
         <v>123</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>66</v>
@@ -2127,17 +2040,17 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>131</v>
+      <c r="H13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2227,19 +2140,19 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -2247,7 +2160,7 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2259,7 +2172,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2276,7 +2189,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2293,7 +2206,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2310,15 +2223,15 @@
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2327,7 +2240,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2344,7 +2257,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2358,7 +2271,7 @@
         <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2373,7 +2286,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2439,7 +2352,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2384,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -2485,10 +2398,10 @@
         <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2499,65 +2412,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="5" width="30.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2575,22 +2433,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2598,34 +2456,34 @@
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2659,22 +2517,22 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -2695,7 +2553,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2713,7 +2571,73 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
